--- a/pontinho2/outputs/gramatica/program.xlsx
+++ b/pontinho2/outputs/gramatica/program.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>=</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>"begin"</t>
   </si>
@@ -120,7 +117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:V87"/>
+  <dimension ref="A1:U86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -187,9 +184,6 @@
       <c r="U1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="0" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
@@ -204,150 +198,144 @@
         <v>1</v>
       </c>
       <c r="C3" s="0">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="D3" s="0">
+        <v>31</v>
+      </c>
+      <c r="E3" s="0">
+        <v>32</v>
+      </c>
+      <c r="F3" s="0">
+        <v>33</v>
+      </c>
+      <c r="G3" s="0">
+        <v>34</v>
+      </c>
+      <c r="H3" s="0">
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
         <v>2</v>
       </c>
-      <c r="D4" s="0">
-        <v>31</v>
-      </c>
-      <c r="E4" s="0">
-        <v>32</v>
-      </c>
-      <c r="F4" s="0">
-        <v>33</v>
-      </c>
-      <c r="G4" s="0">
-        <v>34</v>
-      </c>
-      <c r="H4" s="0">
-        <v>35</v>
-      </c>
-      <c r="I4" s="0">
-        <v>36</v>
+      <c r="U4" s="0">
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
         <v>3</v>
       </c>
+      <c r="I5" s="0">
+        <v>11</v>
+      </c>
       <c r="U5" s="0">
-        <v>85</v>
-      </c>
-      <c r="V5" s="0">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
         <v>4</v>
       </c>
-      <c r="J6" s="0">
-        <v>12</v>
-      </c>
-      <c r="V6" s="0">
-        <v>11</v>
+      <c r="U6" s="0">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
         <v>5</v>
       </c>
-      <c r="V7" s="0">
-        <v>4</v>
+      <c r="U7" s="0">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
         <v>6</v>
       </c>
-      <c r="V8" s="0">
-        <v>4</v>
+      <c r="U8" s="0">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
         <v>7</v>
       </c>
-      <c r="V9" s="0">
-        <v>4</v>
+      <c r="U9" s="0">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
         <v>8</v>
       </c>
-      <c r="V10" s="0">
-        <v>4</v>
+      <c r="U10" s="0">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
         <v>9</v>
       </c>
-      <c r="V11" s="0">
-        <v>4</v>
+      <c r="U11" s="0">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
         <v>10</v>
       </c>
-      <c r="V12" s="0">
-        <v>4</v>
+      <c r="K12" s="0">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
         <v>11</v>
       </c>
-      <c r="L13" s="0">
-        <v>16</v>
+      <c r="J13" s="0">
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
         <v>12</v>
       </c>
-      <c r="K14" s="0">
-        <v>13</v>
+      <c r="U14" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
         <v>13</v>
       </c>
-      <c r="V15" s="0">
-        <v>11</v>
+      <c r="U15" s="0">
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
         <v>14</v>
       </c>
-      <c r="O16" s="0">
-        <v>28</v>
-      </c>
-      <c r="V16" s="0">
-        <v>20</v>
+      <c r="U16" s="0">
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
         <v>15</v>
       </c>
-      <c r="V17" s="0">
-        <v>14</v>
+      <c r="I17" s="0">
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
         <v>16</v>
       </c>
-      <c r="J18" s="0">
+      <c r="L18" s="0">
         <v>17</v>
       </c>
     </row>
@@ -355,7 +343,7 @@
       <c r="A19" s="0">
         <v>17</v>
       </c>
-      <c r="M19" s="0">
+      <c r="J19" s="0">
         <v>18</v>
       </c>
     </row>
@@ -363,55 +351,58 @@
       <c r="A20" s="0">
         <v>18</v>
       </c>
-      <c r="K20" s="0">
-        <v>19</v>
+      <c r="U20" s="0">
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
         <v>19</v>
       </c>
-      <c r="V21" s="0">
-        <v>14</v>
+      <c r="M21" s="0">
+        <v>20</v>
+      </c>
+      <c r="N21" s="0">
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
         <v>20</v>
       </c>
-      <c r="N22" s="0">
-        <v>21</v>
+      <c r="K22" s="0">
+        <v>23</v>
+      </c>
+      <c r="U22" s="0">
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
         <v>21</v>
       </c>
-      <c r="L23" s="0">
-        <v>24</v>
-      </c>
-      <c r="V23" s="0">
-        <v>19</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
         <v>22</v>
       </c>
+      <c r="U24" s="0">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
         <v>23</v>
       </c>
-      <c r="V25" s="0">
-        <v>22</v>
+      <c r="I25" s="0">
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
         <v>24</v>
       </c>
-      <c r="J26" s="0">
+      <c r="L26" s="0">
         <v>25</v>
       </c>
     </row>
@@ -419,7 +410,7 @@
       <c r="A27" s="0">
         <v>25</v>
       </c>
-      <c r="M27" s="0">
+      <c r="J27" s="0">
         <v>26</v>
       </c>
     </row>
@@ -427,85 +418,85 @@
       <c r="A28" s="0">
         <v>26</v>
       </c>
-      <c r="K28" s="0">
-        <v>27</v>
+      <c r="U28" s="0">
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
         <v>27</v>
       </c>
-      <c r="V29" s="0">
-        <v>22</v>
+      <c r="U29" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
         <v>28</v>
       </c>
-      <c r="V30" s="0">
-        <v>3</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
         <v>29</v>
       </c>
+      <c r="O31" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
         <v>30</v>
       </c>
-      <c r="P32" s="0">
-        <v>37</v>
+      <c r="U32" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
         <v>31</v>
       </c>
-      <c r="V33" s="0">
-        <v>30</v>
+      <c r="U33" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
         <v>32</v>
       </c>
-      <c r="V34" s="0">
-        <v>30</v>
+      <c r="U34" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
         <v>33</v>
       </c>
-      <c r="V35" s="0">
-        <v>30</v>
+      <c r="U35" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
         <v>34</v>
       </c>
-      <c r="V36" s="0">
-        <v>30</v>
+      <c r="U36" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
         <v>35</v>
       </c>
-      <c r="V37" s="0">
-        <v>30</v>
+      <c r="U37" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
         <v>36</v>
       </c>
-      <c r="V38" s="0">
-        <v>30</v>
+      <c r="P38" s="0">
+        <v>37</v>
       </c>
     </row>
     <row r="39">
@@ -513,6 +504,9 @@
         <v>37</v>
       </c>
       <c r="Q39" s="0">
+        <v>39</v>
+      </c>
+      <c r="U39" s="0">
         <v>38</v>
       </c>
     </row>
@@ -523,188 +517,185 @@
       <c r="R40" s="0">
         <v>40</v>
       </c>
-      <c r="V40" s="0">
-        <v>39</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
         <v>39</v>
       </c>
-      <c r="S41" s="0">
-        <v>41</v>
+      <c r="U41" s="0">
+        <v>37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
         <v>40</v>
       </c>
-      <c r="V42" s="0">
-        <v>39</v>
+      <c r="S42" s="0">
+        <v>41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
         <v>41</v>
       </c>
-      <c r="T43" s="0">
-        <v>42</v>
+      <c r="U43" s="0">
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
         <v>42</v>
       </c>
-      <c r="V44" s="0">
-        <v>29</v>
+      <c r="N44" s="0">
+        <v>43</v>
+      </c>
+      <c r="T44" s="0">
+        <v>84</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
         <v>43</v>
       </c>
-      <c r="O45" s="0">
-        <v>44</v>
+      <c r="C45" s="0">
+        <v>72</v>
+      </c>
+      <c r="D45" s="0">
+        <v>73</v>
+      </c>
+      <c r="E45" s="0">
+        <v>74</v>
+      </c>
+      <c r="F45" s="0">
+        <v>75</v>
+      </c>
+      <c r="G45" s="0">
+        <v>76</v>
+      </c>
+      <c r="H45" s="0">
+        <v>77</v>
+      </c>
+      <c r="U45" s="0">
+        <v>41</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
         <v>44</v>
       </c>
-      <c r="D46" s="0">
-        <v>73</v>
-      </c>
-      <c r="E46" s="0">
-        <v>74</v>
-      </c>
-      <c r="F46" s="0">
-        <v>75</v>
-      </c>
-      <c r="G46" s="0">
-        <v>76</v>
-      </c>
-      <c r="H46" s="0">
-        <v>77</v>
-      </c>
-      <c r="I46" s="0">
-        <v>78</v>
-      </c>
-      <c r="V46" s="0">
-        <v>42</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
         <v>45</v>
       </c>
+      <c r="I47" s="0">
+        <v>53</v>
+      </c>
+      <c r="U47" s="0">
+        <v>52</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
         <v>46</v>
       </c>
-      <c r="J48" s="0">
-        <v>54</v>
-      </c>
-      <c r="V48" s="0">
-        <v>53</v>
+      <c r="U48" s="0">
+        <v>44</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
         <v>47</v>
       </c>
-      <c r="V49" s="0">
-        <v>46</v>
+      <c r="U49" s="0">
+        <v>44</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
         <v>48</v>
       </c>
-      <c r="V50" s="0">
-        <v>46</v>
+      <c r="U50" s="0">
+        <v>44</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
         <v>49</v>
       </c>
-      <c r="V51" s="0">
-        <v>46</v>
+      <c r="U51" s="0">
+        <v>44</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
         <v>50</v>
       </c>
-      <c r="V52" s="0">
-        <v>46</v>
+      <c r="U52" s="0">
+        <v>44</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
         <v>51</v>
       </c>
-      <c r="V53" s="0">
-        <v>46</v>
+      <c r="U53" s="0">
+        <v>44</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
         <v>52</v>
       </c>
-      <c r="V54" s="0">
-        <v>46</v>
+      <c r="K54" s="0">
+        <v>57</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
         <v>53</v>
       </c>
-      <c r="L55" s="0">
-        <v>58</v>
+      <c r="J55" s="0">
+        <v>54</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
         <v>54</v>
       </c>
-      <c r="K56" s="0">
-        <v>55</v>
+      <c r="U56" s="0">
+        <v>51</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
         <v>55</v>
       </c>
-      <c r="V57" s="0">
-        <v>53</v>
+      <c r="U57" s="0">
+        <v>61</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
         <v>56</v>
       </c>
-      <c r="O58" s="0">
-        <v>70</v>
-      </c>
-      <c r="V58" s="0">
-        <v>62</v>
+      <c r="U58" s="0">
+        <v>54</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
         <v>57</v>
       </c>
-      <c r="V59" s="0">
-        <v>56</v>
+      <c r="I59" s="0">
+        <v>58</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
         <v>58</v>
       </c>
-      <c r="J60" s="0">
+      <c r="L60" s="0">
         <v>59</v>
       </c>
     </row>
@@ -712,7 +703,7 @@
       <c r="A61" s="0">
         <v>59</v>
       </c>
-      <c r="M61" s="0">
+      <c r="J61" s="0">
         <v>60</v>
       </c>
     </row>
@@ -720,55 +711,58 @@
       <c r="A62" s="0">
         <v>60</v>
       </c>
-      <c r="K62" s="0">
-        <v>61</v>
+      <c r="U62" s="0">
+        <v>54</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
         <v>61</v>
       </c>
-      <c r="V63" s="0">
-        <v>56</v>
+      <c r="M63" s="0">
+        <v>62</v>
+      </c>
+      <c r="N63" s="0">
+        <v>69</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
         <v>62</v>
       </c>
-      <c r="N64" s="0">
-        <v>63</v>
+      <c r="K64" s="0">
+        <v>65</v>
+      </c>
+      <c r="U64" s="0">
+        <v>60</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
         <v>63</v>
       </c>
-      <c r="L65" s="0">
-        <v>66</v>
-      </c>
-      <c r="V65" s="0">
-        <v>61</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
         <v>64</v>
       </c>
+      <c r="U66" s="0">
+        <v>62</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
         <v>65</v>
       </c>
-      <c r="V67" s="0">
-        <v>64</v>
+      <c r="I67" s="0">
+        <v>66</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
         <v>66</v>
       </c>
-      <c r="J68" s="0">
+      <c r="L68" s="0">
         <v>67</v>
       </c>
     </row>
@@ -776,7 +770,7 @@
       <c r="A69" s="0">
         <v>67</v>
       </c>
-      <c r="M69" s="0">
+      <c r="J69" s="0">
         <v>68</v>
       </c>
     </row>
@@ -784,85 +778,85 @@
       <c r="A70" s="0">
         <v>68</v>
       </c>
-      <c r="K70" s="0">
-        <v>69</v>
+      <c r="U70" s="0">
+        <v>62</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
         <v>69</v>
       </c>
-      <c r="V71" s="0">
-        <v>64</v>
+      <c r="U71" s="0">
+        <v>43</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
         <v>70</v>
       </c>
-      <c r="V72" s="0">
-        <v>45</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
         <v>71</v>
       </c>
+      <c r="O73" s="0">
+        <v>78</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
         <v>72</v>
       </c>
-      <c r="P74" s="0">
-        <v>79</v>
+      <c r="U74" s="0">
+        <v>70</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
         <v>73</v>
       </c>
-      <c r="V75" s="0">
-        <v>72</v>
+      <c r="U75" s="0">
+        <v>70</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
         <v>74</v>
       </c>
-      <c r="V76" s="0">
-        <v>72</v>
+      <c r="U76" s="0">
+        <v>70</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
         <v>75</v>
       </c>
-      <c r="V77" s="0">
-        <v>72</v>
+      <c r="U77" s="0">
+        <v>70</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
         <v>76</v>
       </c>
-      <c r="V78" s="0">
-        <v>72</v>
+      <c r="U78" s="0">
+        <v>70</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
         <v>77</v>
       </c>
-      <c r="V79" s="0">
-        <v>72</v>
+      <c r="U79" s="0">
+        <v>70</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
         <v>78</v>
       </c>
-      <c r="V80" s="0">
-        <v>72</v>
+      <c r="P80" s="0">
+        <v>79</v>
       </c>
     </row>
     <row r="81">
@@ -870,6 +864,9 @@
         <v>79</v>
       </c>
       <c r="Q81" s="0">
+        <v>81</v>
+      </c>
+      <c r="U81" s="0">
         <v>80</v>
       </c>
     </row>
@@ -880,45 +877,34 @@
       <c r="R82" s="0">
         <v>82</v>
       </c>
-      <c r="V82" s="0">
-        <v>81</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
         <v>81</v>
       </c>
-      <c r="S83" s="0">
-        <v>83</v>
+      <c r="U83" s="0">
+        <v>79</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
         <v>82</v>
       </c>
-      <c r="V84" s="0">
-        <v>81</v>
+      <c r="S84" s="0">
+        <v>83</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
         <v>83</v>
       </c>
-      <c r="T85" s="0">
-        <v>84</v>
+      <c r="U85" s="0">
+        <v>69</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
         <v>84</v>
-      </c>
-      <c r="V86" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="0">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
